--- a/PushPlan.xlsx
+++ b/PushPlan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="105">
   <si>
     <t xml:space="preserve">计划结
 焦时间</t>
@@ -107,10 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2#炉区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017年11月22日</t>
+    <t xml:space="preserve">4#炉区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017年12月5日</t>
   </si>
   <si>
     <t xml:space="preserve">夜班</t>
@@ -119,253 +119,244 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">19:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
     <t xml:space="preserve">18:56</t>
   </si>
   <si>
-    <t xml:space="preserve">21:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">03:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
   </si>
   <si>
     <t xml:space="preserve">19:03</t>
   </si>
   <si>
-    <t xml:space="preserve">21:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:47</t>
+    <t xml:space="preserve">04:18</t>
   </si>
   <si>
     <t xml:space="preserve">27</t>
   </si>
   <si>
-    <t xml:space="preserve">18:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05:56</t>
+    <t xml:space="preserve">04:27</t>
   </si>
   <si>
     <t xml:space="preserve">28</t>
   </si>
   <si>
-    <t xml:space="preserve">06:05</t>
+    <t xml:space="preserve">04:36</t>
   </si>
   <si>
     <t xml:space="preserve">29</t>
   </si>
   <si>
-    <t xml:space="preserve">18:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:14</t>
+    <t xml:space="preserve">07:01</t>
   </si>
   <si>
     <t xml:space="preserve">30</t>
   </si>
   <si>
-    <t xml:space="preserve">06:23</t>
+    <t xml:space="preserve">07:10</t>
   </si>
   <si>
     <t xml:space="preserve">31</t>
   </si>
   <si>
-    <t xml:space="preserve">18:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:32</t>
+    <t xml:space="preserve">07:19</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
   </si>
   <si>
-    <t xml:space="preserve">06:41</t>
+    <t xml:space="preserve">07:28</t>
   </si>
   <si>
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">06:50</t>
+    <t xml:space="preserve">07:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:55</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="48"/>
       <c r="H3" s="21"/>
@@ -1232,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="O3" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="48"/>
       <c r="Q3" s="11"/>
@@ -1242,7 +1233,7 @@
       </c>
       <c r="T3" s="38"/>
       <c r="U3" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="20"/>
@@ -1251,7 +1242,7 @@
       </c>
       <c r="Y3" s="38"/>
       <c r="Z3" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="20"/>
@@ -1260,7 +1251,7 @@
       </c>
       <c r="AD3" s="38"/>
       <c r="AE3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="28.5">
@@ -1343,7 +1334,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="12">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -1360,7 +1351,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="15">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>25</v>
@@ -1377,7 +1368,7 @@
         <v>24</v>
       </c>
       <c r="T5" s="15">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="U5" s="15" t="s">
         <v>26</v>
@@ -1388,7 +1379,7 @@
         <v>24</v>
       </c>
       <c r="Y5" s="15">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>26</v>
@@ -1399,7 +1390,7 @@
         <v>24</v>
       </c>
       <c r="AD5" s="15">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AE5" s="15" t="s">
         <v>26</v>
@@ -1410,7 +1401,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="12">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>28</v>
@@ -1427,7 +1418,7 @@
         <v>27</v>
       </c>
       <c r="K6" s="15">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>28</v>
@@ -1444,7 +1435,7 @@
         <v>27</v>
       </c>
       <c r="T6" s="15">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>29</v>
@@ -1455,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="Y6" s="15">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="Z6" s="15" t="s">
         <v>29</v>
@@ -1466,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="AD6" s="15">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AE6" s="15" t="s">
         <v>29</v>
@@ -1477,13 +1468,13 @@
         <v>30</v>
       </c>
       <c r="B7" s="12">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1494,13 +1485,13 @@
         <v>30</v>
       </c>
       <c r="K7" s="15">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1511,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="T7" s="15">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="20"/>
@@ -1522,10 +1513,10 @@
         <v>30</v>
       </c>
       <c r="Y7" s="15">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" s="11"/>
       <c r="AB7" s="20"/>
@@ -1533,24 +1524,24 @@
         <v>30</v>
       </c>
       <c r="AD7" s="15">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="AE7" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="13">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1558,16 +1549,16 @@
       <c r="H8" s="23"/>
       <c r="I8" s="26"/>
       <c r="J8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="15">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1575,49 +1566,49 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="20"/>
       <c r="S8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="15">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="20"/>
       <c r="X8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="15">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD8" s="15">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="AE8" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="12">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1625,16 +1616,16 @@
       <c r="H9" s="23"/>
       <c r="I9" s="26"/>
       <c r="J9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" s="16">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1642,116 +1633,116 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="20"/>
       <c r="S9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T9" s="15">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V9" s="11"/>
       <c r="W9" s="20"/>
       <c r="X9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="15">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="11"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD9" s="15">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AE9" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12">
-        <v>83</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="51">
+        <v>110</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="23"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="15">
-        <v>83</v>
-      </c>
-      <c r="L10" s="14" t="s">
+      <c r="J10" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="K10" s="51">
+        <v>110</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
+      <c r="M10" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="20"/>
-      <c r="S10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="15">
-        <v>83</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>39</v>
+      <c r="S10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="51">
+        <v>110</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>40</v>
       </c>
       <c r="V10" s="11"/>
       <c r="W10" s="20"/>
-      <c r="X10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>83</v>
-      </c>
-      <c r="Z10" s="15" t="s">
-        <v>39</v>
+      <c r="X10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="51">
+        <v>110</v>
+      </c>
+      <c r="Z10" s="51" t="s">
+        <v>40</v>
       </c>
       <c r="AA10" s="11"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" s="15">
-        <v>83</v>
-      </c>
-      <c r="AE10" s="15" t="s">
-        <v>39</v>
+      <c r="AC10" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="51">
+        <v>110</v>
+      </c>
+      <c r="AE10" s="51" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="12">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1759,16 +1750,16 @@
       <c r="H11" s="23"/>
       <c r="I11" s="26"/>
       <c r="J11" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="15">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1776,49 +1767,49 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="20"/>
       <c r="S11" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" s="15">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="U11" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="20"/>
       <c r="X11" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y11" s="15">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="Z11" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="11"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD11" s="15">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="AE11" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1826,16 +1817,16 @@
       <c r="H12" s="23"/>
       <c r="I12" s="26"/>
       <c r="J12" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="15">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1843,49 +1834,49 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="20"/>
       <c r="S12" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T12" s="15">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V12" s="11"/>
       <c r="W12" s="20"/>
       <c r="X12" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y12" s="15">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="Z12" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD12" s="15">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="AE12" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1893,16 +1884,16 @@
       <c r="H13" s="28"/>
       <c r="I13" s="20"/>
       <c r="J13" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13" s="15">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1910,49 +1901,49 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="20"/>
       <c r="S13" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T13" s="15">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="U13" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V13" s="11"/>
       <c r="W13" s="20"/>
       <c r="X13" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="15">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA13" s="11"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AD13" s="15">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="12">
+        <v>72</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="12">
-        <v>103</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1960,16 +1951,16 @@
       <c r="H14" s="23"/>
       <c r="I14" s="26"/>
       <c r="J14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="15">
+        <v>72</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="15">
-        <v>103</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="M14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1977,116 +1968,116 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="20"/>
       <c r="S14" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T14" s="15">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="U14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V14" s="11"/>
       <c r="W14" s="20"/>
       <c r="X14" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y14" s="15">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="Z14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="11"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AD14" s="15">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="AE14" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="51">
-        <v>108</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="51" t="s">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="B15" s="12">
+        <v>77</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="23"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="51">
-        <v>108</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="51" t="s">
+      <c r="J15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="K15" s="15">
+        <v>77</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="T15" s="51">
-        <v>108</v>
-      </c>
-      <c r="U15" s="51" t="s">
+      <c r="S15" s="15" t="s">
         <v>51</v>
+      </c>
+      <c r="T15" s="15">
+        <v>77</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="V15" s="11"/>
       <c r="W15" s="20"/>
-      <c r="X15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y15" s="51">
-        <v>108</v>
-      </c>
-      <c r="Z15" s="51" t="s">
+      <c r="X15" s="15" t="s">
         <v>51</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>77</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="AA15" s="11"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD15" s="51">
-        <v>108</v>
-      </c>
-      <c r="AE15" s="51" t="s">
+      <c r="AC15" s="15" t="s">
         <v>51</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>77</v>
+      </c>
+      <c r="AE15" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="12">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -2094,16 +2085,16 @@
       <c r="H16" s="28"/>
       <c r="I16" s="20"/>
       <c r="J16" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K16" s="15">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2111,46 +2102,46 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="20"/>
       <c r="S16" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T16" s="15">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" s="11"/>
       <c r="W16" s="20"/>
       <c r="X16" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="15">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA16" s="11"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD16" s="15">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="AE16" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="12">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>57</v>
@@ -2161,13 +2152,13 @@
       <c r="H17" s="28"/>
       <c r="I17" s="20"/>
       <c r="J17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K17" s="15">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M17" s="15" t="s">
         <v>57</v>
@@ -2178,10 +2169,10 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="20"/>
       <c r="S17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" s="15">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="U17" s="15" t="s">
         <v>57</v>
@@ -2189,10 +2180,10 @@
       <c r="V17" s="11"/>
       <c r="W17" s="20"/>
       <c r="X17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y17" s="15">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Z17" s="15" t="s">
         <v>57</v>
@@ -2200,10 +2191,10 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="15">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AE17" s="15" t="s">
         <v>57</v>
@@ -2214,13 +2205,13 @@
         <v>58</v>
       </c>
       <c r="B18" s="12">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2231,13 +2222,13 @@
         <v>58</v>
       </c>
       <c r="K18" s="15">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2248,10 +2239,10 @@
         <v>58</v>
       </c>
       <c r="T18" s="15">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="U18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V18" s="11"/>
       <c r="W18" s="20"/>
@@ -2259,10 +2250,10 @@
         <v>58</v>
       </c>
       <c r="Y18" s="15">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="Z18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AA18" s="11"/>
       <c r="AB18" s="20"/>
@@ -2270,24 +2261,24 @@
         <v>58</v>
       </c>
       <c r="AD18" s="15">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AE18" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12">
+        <v>97</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" s="12">
-        <v>75</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2295,16 +2286,16 @@
       <c r="H19" s="23"/>
       <c r="I19" s="26"/>
       <c r="J19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="15">
+        <v>97</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="K19" s="15">
-        <v>75</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2312,49 +2303,49 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="20"/>
       <c r="S19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="15">
+        <v>97</v>
+      </c>
+      <c r="U19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="T19" s="15">
-        <v>75</v>
-      </c>
-      <c r="U19" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="V19" s="11"/>
       <c r="W19" s="20"/>
       <c r="X19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>97</v>
+      </c>
+      <c r="Z19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="Y19" s="15">
-        <v>75</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="AA19" s="11"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>97</v>
+      </c>
+      <c r="AE19" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="AD19" s="15">
-        <v>75</v>
-      </c>
-      <c r="AE19" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="12">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2362,16 +2353,16 @@
       <c r="H20" s="28"/>
       <c r="I20" s="20"/>
       <c r="J20" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K20" s="15">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -2379,116 +2370,116 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="20"/>
       <c r="S20" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T20" s="15">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="U20" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V20" s="11"/>
       <c r="W20" s="20"/>
       <c r="X20" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Y20" s="15">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="Z20" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA20" s="11"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>102</v>
+      </c>
+      <c r="AE20" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A21" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="AD20" s="15">
-        <v>80</v>
-      </c>
-      <c r="AE20" s="15" t="s">
+      <c r="B21" s="51">
+        <v>107</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="51" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="12">
-        <v>85</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
       <c r="H21" s="23"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="15">
-        <v>85</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="J21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="51">
+        <v>107</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="20"/>
-      <c r="S21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="T21" s="15">
-        <v>85</v>
-      </c>
-      <c r="U21" s="15" t="s">
-        <v>67</v>
+      <c r="S21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" s="51">
+        <v>107</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="V21" s="11"/>
       <c r="W21" s="20"/>
-      <c r="X21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y21" s="15">
-        <v>85</v>
-      </c>
-      <c r="Z21" s="15" t="s">
-        <v>67</v>
+      <c r="X21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y21" s="51">
+        <v>107</v>
+      </c>
+      <c r="Z21" s="51" t="s">
+        <v>65</v>
       </c>
       <c r="AA21" s="11"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD21" s="15">
-        <v>85</v>
-      </c>
-      <c r="AE21" s="15" t="s">
-        <v>67</v>
+      <c r="AC21" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD21" s="51">
+        <v>107</v>
+      </c>
+      <c r="AE21" s="51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="12">
+        <v>59</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="12">
-        <v>90</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -2496,16 +2487,16 @@
       <c r="H22" s="23"/>
       <c r="I22" s="26"/>
       <c r="J22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="15">
+        <v>59</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="K22" s="15">
-        <v>90</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -2513,49 +2504,49 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="20"/>
       <c r="S22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="15">
+        <v>59</v>
+      </c>
+      <c r="U22" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="T22" s="15">
-        <v>90</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="V22" s="11"/>
       <c r="W22" s="20"/>
       <c r="X22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>59</v>
+      </c>
+      <c r="Z22" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="Y22" s="15">
-        <v>90</v>
-      </c>
-      <c r="Z22" s="15" t="s">
-        <v>69</v>
       </c>
       <c r="AA22" s="11"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD22" s="15">
+        <v>59</v>
+      </c>
+      <c r="AE22" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="AD22" s="15">
-        <v>90</v>
-      </c>
-      <c r="AE22" s="15" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="12">
+        <v>64</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="12">
-        <v>95</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -2563,16 +2554,16 @@
       <c r="H23" s="28"/>
       <c r="I23" s="20"/>
       <c r="J23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="15">
+        <v>64</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="K23" s="15">
-        <v>95</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2580,46 +2571,46 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="20"/>
       <c r="S23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T23" s="15">
+        <v>64</v>
+      </c>
+      <c r="U23" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="T23" s="15">
-        <v>95</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="V23" s="11"/>
       <c r="W23" s="20"/>
       <c r="X23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y23" s="15">
+        <v>64</v>
+      </c>
+      <c r="Z23" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="Y23" s="15">
-        <v>95</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="AA23" s="11"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>64</v>
+      </c>
+      <c r="AE23" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="AD23" s="15">
-        <v>95</v>
-      </c>
-      <c r="AE23" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="12">
+        <v>69</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="12">
-        <v>100</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>73</v>
@@ -2630,13 +2621,13 @@
       <c r="H24" s="28"/>
       <c r="I24" s="20"/>
       <c r="J24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="15">
+        <v>69</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="K24" s="15">
-        <v>100</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>73</v>
@@ -2647,10 +2638,10 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="20"/>
       <c r="S24" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T24" s="15">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="U24" s="15" t="s">
         <v>73</v>
@@ -2658,10 +2649,10 @@
       <c r="V24" s="11"/>
       <c r="W24" s="20"/>
       <c r="X24" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y24" s="15">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="15" t="s">
         <v>73</v>
@@ -2669,10 +2660,10 @@
       <c r="AA24" s="11"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD24" s="15">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="AE24" s="15" t="s">
         <v>73</v>
@@ -2683,13 +2674,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="12">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -2700,13 +2691,13 @@
         <v>74</v>
       </c>
       <c r="K25" s="15">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="L25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>76</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2717,10 +2708,10 @@
         <v>74</v>
       </c>
       <c r="T25" s="15">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V25" s="11"/>
       <c r="W25" s="20"/>
@@ -2728,10 +2719,10 @@
         <v>74</v>
       </c>
       <c r="Y25" s="15">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="Z25" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA25" s="11"/>
       <c r="AB25" s="20"/>
@@ -2739,91 +2730,91 @@
         <v>74</v>
       </c>
       <c r="AD25" s="15">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AE25" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A26" s="51" t="s">
+      <c r="B26" s="12">
+        <v>79</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="51">
-        <v>110</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="28"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="51" t="s">
+      <c r="J26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" s="15">
+        <v>79</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="K26" s="51">
-        <v>110</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="51" t="s">
+      <c r="S26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" s="15">
+        <v>79</v>
+      </c>
+      <c r="U26" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="T26" s="51">
-        <v>110</v>
-      </c>
-      <c r="U26" s="51" t="s">
-        <v>78</v>
       </c>
       <c r="V26" s="11"/>
       <c r="W26" s="20"/>
-      <c r="X26" s="51" t="s">
+      <c r="X26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26" s="15">
+        <v>79</v>
+      </c>
+      <c r="Z26" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="Y26" s="51">
-        <v>110</v>
-      </c>
-      <c r="Z26" s="51" t="s">
-        <v>78</v>
       </c>
       <c r="AA26" s="11"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="51" t="s">
+      <c r="AC26" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD26" s="15">
+        <v>79</v>
+      </c>
+      <c r="AE26" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="AD26" s="51">
-        <v>110</v>
-      </c>
-      <c r="AE26" s="51" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="12">
+        <v>84</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="12">
-        <v>57</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2831,16 +2822,16 @@
       <c r="H27" s="28"/>
       <c r="I27" s="20"/>
       <c r="J27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="15">
+        <v>84</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="K27" s="15">
-        <v>57</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2848,49 +2839,49 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="20"/>
       <c r="S27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T27" s="15">
+        <v>84</v>
+      </c>
+      <c r="U27" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="T27" s="15">
-        <v>57</v>
-      </c>
-      <c r="U27" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="V27" s="11"/>
       <c r="W27" s="20"/>
       <c r="X27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>84</v>
+      </c>
+      <c r="Z27" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="Y27" s="15">
-        <v>57</v>
-      </c>
-      <c r="Z27" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="AA27" s="11"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD27" s="15">
+        <v>84</v>
+      </c>
+      <c r="AE27" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="AD27" s="15">
-        <v>57</v>
-      </c>
-      <c r="AE27" s="15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="12">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2898,16 +2889,16 @@
       <c r="H28" s="28"/>
       <c r="I28" s="20"/>
       <c r="J28" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" s="15">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2915,49 +2906,49 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="20"/>
       <c r="S28" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T28" s="15">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V28" s="11"/>
       <c r="W28" s="20"/>
       <c r="X28" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Y28" s="15">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="Z28" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AA28" s="11"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD28" s="15">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="AE28" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" s="12">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2965,16 +2956,16 @@
       <c r="H29" s="28"/>
       <c r="I29" s="20"/>
       <c r="J29" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K29" s="15">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2982,49 +2973,49 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="20"/>
       <c r="S29" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="T29" s="15">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="V29" s="11"/>
       <c r="W29" s="20"/>
       <c r="X29" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Y29" s="15">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="Z29" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AA29" s="11"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AD29" s="15">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="AE29" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B30" s="12">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -3032,16 +3023,16 @@
       <c r="H30" s="28"/>
       <c r="I30" s="20"/>
       <c r="J30" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K30" s="15">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -3049,49 +3040,49 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="20"/>
       <c r="S30" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T30" s="15">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="V30" s="11"/>
       <c r="W30" s="20"/>
       <c r="X30" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Y30" s="15">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="Z30" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AA30" s="11"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AD30" s="15">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="AE30" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="12">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -3099,16 +3090,16 @@
       <c r="H31" s="28"/>
       <c r="I31" s="20"/>
       <c r="J31" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K31" s="15">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -3116,476 +3107,544 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="20"/>
       <c r="S31" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="T31" s="15">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="V31" s="11"/>
       <c r="W31" s="20"/>
       <c r="X31" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y31" s="15">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="Z31" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AA31" s="11"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AD31" s="15">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="AE31" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="12">
-        <v>82</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="B32" s="51">
+        <v>109</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="28"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K32" s="15">
-        <v>82</v>
-      </c>
-      <c r="L32" s="15" t="s">
+      <c r="J32" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="K32" s="51">
+        <v>109</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="T32" s="15">
-        <v>82</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>95</v>
+      <c r="S32" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" s="51">
+        <v>109</v>
+      </c>
+      <c r="U32" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="V32" s="11"/>
       <c r="W32" s="20"/>
-      <c r="X32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>82</v>
-      </c>
-      <c r="Z32" s="15" t="s">
-        <v>95</v>
+      <c r="X32" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y32" s="51">
+        <v>109</v>
+      </c>
+      <c r="Z32" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="AA32" s="11"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD32" s="15">
-        <v>82</v>
-      </c>
-      <c r="AE32" s="15" t="s">
-        <v>95</v>
+      <c r="AC32" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD32" s="51">
+        <v>109</v>
+      </c>
+      <c r="AE32" s="51" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="19.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B33" s="12">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="28"/>
       <c r="J33" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K33" s="15">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="30"/>
       <c r="S33" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="T33" s="15">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="V33" s="30"/>
       <c r="X33" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y33" s="15">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="Z33" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AA33" s="30"/>
       <c r="AC33" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AD33" s="15">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="AE33" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="19.5" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B34" s="12">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="28"/>
       <c r="J34" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K34" s="15">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="30"/>
       <c r="S34" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T34" s="15">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="V34" s="30"/>
       <c r="X34" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Y34" s="15">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="Z34" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AA34" s="30"/>
       <c r="AC34" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AD34" s="15">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="AE34" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="19.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B35" s="12">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="28"/>
       <c r="J35" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K35" s="15">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="30"/>
       <c r="S35" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T35" s="15">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="U35" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="V35" s="30"/>
       <c r="X35" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Y35" s="15">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="Z35" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AA35" s="30"/>
       <c r="AC35" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AD35" s="15">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="AE35" s="15" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="19.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B36" s="12">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="28"/>
       <c r="J36" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K36" s="15">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="30"/>
       <c r="S36" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="T36" s="15">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="V36" s="30"/>
       <c r="X36" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Y36" s="15">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="Z36" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AA36" s="30"/>
       <c r="AC36" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AD36" s="15">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="AE36" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="19.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B37" s="12">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="28"/>
       <c r="J37" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K37" s="15">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="30"/>
       <c r="S37" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="T37" s="15">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="V37" s="30"/>
       <c r="X37" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Y37" s="15">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="Z37" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AA37" s="30"/>
       <c r="AC37" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AD37" s="15">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AE37" s="15" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A38" s="5"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="12">
+        <v>81</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="28"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
+      <c r="J38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="15">
+        <v>81</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="30"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
+      <c r="S38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="T38" s="15">
+        <v>81</v>
+      </c>
+      <c r="U38" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="V38" s="30"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
+      <c r="X38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y38" s="15">
+        <v>81</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="AA38" s="30"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
+      <c r="AC38" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD38" s="15">
+        <v>81</v>
+      </c>
+      <c r="AE38" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="39" spans="1:31" ht="19.5" customHeight="1">
-      <c r="A39" s="5"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="12">
+        <v>86</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="28"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="J39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K39" s="15">
+        <v>86</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="30"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
+      <c r="S39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="T39" s="15">
+        <v>86</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="V39" s="30"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
+      <c r="X39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y39" s="15">
+        <v>86</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="AA39" s="30"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
+      <c r="AC39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD39" s="15">
+        <v>86</v>
+      </c>
+      <c r="AE39" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="40" spans="1:31" ht="19.5" customHeight="1">
       <c r="A40" s="5"/>
